--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="654">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,135 +484,146 @@
     <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
   </si>
   <si>
+    <t>Observation.extension:measurmentDevice.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:measurmentDevice.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/weightMeasurementDeviceVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation</t>
+  </si>
+  <si>
+    <t>associatedSituation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
+</t>
+  </si>
+  <si>
+    <t>Associated Situation</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/weightMeasurementDeviceVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation</t>
-  </si>
-  <si>
-    <t>associatedSituation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
-</t>
-  </si>
-  <si>
-    <t>Associated Situation</t>
-  </si>
-  <si>
-    <t>Situations that may affect the measurement or assessment.</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation.id</t>
-  </si>
-  <si>
     <t>Observation.extension:associatedSituation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Observation.extension:associatedSituation.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt</t>
   </si>
   <si>
     <t>Observation.extension:associatedSituation.value[x]</t>
@@ -640,14 +651,7 @@
     <t>Measurement setting</t>
   </si>
   <si>
-    <t>The location or setting the subject was in when the measurement was obtained. For example, home, clinic, hospital. etc.</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -657,9 +661,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -701,7 +702,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -730,7 +731,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -806,7 +807,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -837,12 +838,6 @@
     <t>Observation.category.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.category:VSCat.coding</t>
   </si>
   <si>
@@ -1071,7 +1066,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1196,7 +1191,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1219,7 +1214,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1275,7 +1270,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1318,7 +1313,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1552,7 +1547,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1637,7 +1632,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1670,7 +1665,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1682,7 +1677,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1710,7 +1705,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1790,7 +1785,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1840,7 +1835,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1873,7 +1868,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1910,7 +1905,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1932,7 +1927,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2050,7 +2045,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2400,7 +2395,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3515,7 +3510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3611,7 +3606,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3637,10 +3632,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3663,13 +3658,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3720,31 +3715,31 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3755,10 +3750,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3829,7 +3824,7 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
@@ -3838,7 +3833,7 @@
         <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3873,10 +3868,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3902,13 +3897,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3916,49 +3911,49 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>93</v>
@@ -3993,10 +3988,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4019,13 +4014,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4052,36 +4047,36 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
@@ -4110,7 +4105,7 @@
         <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>180</v>
@@ -4135,13 +4130,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4190,16 +4185,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>105</v>
@@ -4223,7 +4218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4319,7 +4314,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -4345,10 +4340,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4371,13 +4366,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4428,31 +4423,31 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4466,18 +4461,18 @@
         <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -4492,12 +4487,14 @@
         <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4537,7 +4534,7 @@
         <v>141</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
@@ -4546,7 +4543,7 @@
         <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4570,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4581,10 +4578,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4610,13 +4607,13 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4624,7 +4621,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>20</v>
@@ -4666,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>93</v>
@@ -4701,10 +4698,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4727,13 +4724,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4772,17 +4769,17 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4817,10 +4814,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>180</v>
@@ -4845,13 +4842,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4882,7 +4879,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4900,7 +4897,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4933,15 +4930,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
@@ -4963,13 +4960,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5029,7 +5026,7 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>144</v>
@@ -5055,14 +5052,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5084,13 +5081,13 @@
         <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>206</v>
@@ -5535,7 +5532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>235</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>248</v>
@@ -5775,7 +5772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>257</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>248</v>
@@ -5927,13 +5924,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5984,31 +5981,31 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -6026,7 +6023,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6048,13 +6045,13 @@
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6095,7 +6092,7 @@
         <v>141</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
@@ -6104,7 +6101,7 @@
         <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6128,7 +6125,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -6137,12 +6134,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6165,19 +6162,19 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -6226,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6247,10 +6244,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6261,10 +6258,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6287,13 +6284,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6344,31 +6341,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6379,14 +6376,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6408,13 +6405,13 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6455,7 +6452,7 @@
         <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
@@ -6464,7 +6461,7 @@
         <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6488,7 +6485,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6497,12 +6494,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6528,23 +6525,23 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>20</v>
@@ -6586,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6607,10 +6604,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6621,10 +6618,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6647,16 +6644,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6706,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6727,24 +6724,24 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="B37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6770,21 +6767,21 @@
         <v>113</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>20</v>
@@ -6826,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6847,10 +6844,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6861,10 +6858,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6887,17 +6884,17 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6946,7 +6943,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6967,10 +6964,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6981,10 +6978,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7007,19 +7004,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -7068,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7089,10 +7086,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -7103,10 +7100,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7129,19 +7126,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7190,7 +7187,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7211,28 +7208,28 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7251,19 +7248,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7291,10 +7288,10 @@
         <v>181</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -7312,7 +7309,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>93</v>
@@ -7327,30 +7324,30 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7373,13 +7370,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7430,31 +7427,31 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7465,14 +7462,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7494,13 +7491,13 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7541,7 +7538,7 @@
         <v>141</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
@@ -7550,7 +7547,7 @@
         <v>142</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7574,7 +7571,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7585,10 +7582,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7611,19 +7608,19 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7660,7 +7657,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7670,7 +7667,7 @@
         <v>142</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7691,10 +7688,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7705,13 +7702,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -7733,19 +7730,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7794,7 +7791,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7815,10 +7812,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7829,10 +7826,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7855,13 +7852,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7912,31 +7909,31 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7947,14 +7944,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7976,13 +7973,13 @@
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8023,7 +8020,7 @@
         <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
@@ -8032,7 +8029,7 @@
         <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8056,7 +8053,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -8067,10 +8064,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8096,23 +8093,23 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>20</v>
@@ -8154,7 +8151,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8175,10 +8172,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -8189,10 +8186,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8215,16 +8212,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8274,7 +8271,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8295,10 +8292,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8309,10 +8306,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8338,21 +8335,21 @@
         <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>20</v>
@@ -8394,7 +8391,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8415,10 +8412,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8429,10 +8426,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8455,17 +8452,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8514,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8535,10 +8532,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8549,10 +8546,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8575,19 +8572,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8636,7 +8633,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8657,10 +8654,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8671,10 +8668,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8697,19 +8694,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8758,7 +8755,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8779,10 +8776,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8791,12 +8788,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8819,19 +8816,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8880,7 +8877,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8895,19 +8892,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8915,10 +8912,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8941,16 +8938,16 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9000,7 +8997,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9021,13 +9018,13 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -9035,14 +9032,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9061,19 +9058,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -9122,7 +9119,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9137,34 +9134,34 @@
         <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9183,19 +9180,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9244,7 +9241,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9253,25 +9250,25 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -9279,10 +9276,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9305,16 +9302,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9364,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9385,13 +9382,13 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>20</v>
@@ -9399,10 +9396,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9425,17 +9422,17 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9484,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9499,19 +9496,19 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9519,10 +9516,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9545,19 +9542,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9594,17 +9591,17 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9613,7 +9610,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9622,30 +9619,30 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>436</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>20</v>
@@ -9667,19 +9664,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9728,7 +9725,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9737,7 +9734,7 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9746,27 +9743,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9789,13 +9786,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9846,31 +9843,31 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9881,14 +9878,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9910,13 +9907,13 @@
         <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9957,7 +9954,7 @@
         <v>141</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>20</v>
@@ -9966,7 +9963,7 @@
         <v>142</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9990,7 +9987,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9999,12 +9996,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10027,19 +10024,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10088,7 +10085,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10109,10 +10106,10 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -10123,10 +10120,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10152,20 +10149,20 @@
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>20</v>
@@ -10189,28 +10186,28 @@
         <v>240</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10231,24 +10228,24 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="B66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10271,17 +10268,17 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10330,7 +10327,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10351,24 +10348,24 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="B67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10394,72 +10391,72 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10471,24 +10468,24 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10514,16 +10511,16 @@
         <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10552,7 +10549,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10570,7 +10567,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10591,10 +10588,10 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10603,12 +10600,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10631,19 +10628,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10671,37 +10668,37 @@
         <v>181</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10716,7 +10713,7 @@
         <v>136</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10727,14 +10724,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10753,19 +10750,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10794,7 +10791,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10812,7 +10809,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10830,27 +10827,27 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10873,19 +10870,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10934,7 +10931,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10955,10 +10952,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10969,10 +10966,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10995,16 +10992,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11030,13 +11027,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -11054,7 +11051,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11072,27 +11069,27 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11115,19 +11112,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -11152,13 +11149,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -11176,7 +11173,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11197,10 +11194,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11211,10 +11208,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11237,16 +11234,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11296,7 +11293,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11314,27 +11311,27 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>544</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11357,16 +11354,16 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11416,7 +11413,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11434,27 +11431,27 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>553</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11477,19 +11474,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11538,7 +11535,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11550,19 +11547,19 @@
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -11573,10 +11570,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11599,13 +11596,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11656,31 +11653,31 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11691,14 +11688,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11720,13 +11717,13 @@
         <v>138</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11776,7 +11773,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11800,7 +11797,7 @@
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11811,14 +11808,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11840,13 +11837,13 @@
         <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>206</v>
@@ -11898,7 +11895,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11933,10 +11930,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11959,13 +11956,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12016,7 +12013,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12025,7 +12022,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12037,10 +12034,10 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -12051,10 +12048,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12077,13 +12074,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12134,7 +12131,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12143,7 +12140,7 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>105</v>
@@ -12155,10 +12152,10 @@
         <v>20</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -12169,10 +12166,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12195,19 +12192,19 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12235,10 +12232,10 @@
         <v>117</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -12256,7 +12253,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12274,13 +12271,13 @@
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -12291,10 +12288,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12317,19 +12314,19 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12354,13 +12351,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12378,7 +12375,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12396,13 +12393,13 @@
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12413,10 +12410,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12439,17 +12436,17 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12498,7 +12495,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12522,7 +12519,7 @@
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12533,10 +12530,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12559,13 +12556,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12616,7 +12613,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12637,10 +12634,10 @@
         <v>20</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12651,10 +12648,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12677,16 +12674,16 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12736,7 +12733,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12757,10 +12754,10 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12771,10 +12768,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12797,16 +12794,16 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12856,7 +12853,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12877,10 +12874,10 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12889,12 +12886,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12917,19 +12914,19 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12978,7 +12975,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12990,19 +12987,19 @@
         <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -13013,10 +13010,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13039,13 +13036,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13096,31 +13093,31 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13131,14 +13128,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13160,13 +13157,13 @@
         <v>138</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13216,7 +13213,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13240,7 +13237,7 @@
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13251,14 +13248,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13280,13 +13277,13 @@
         <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>206</v>
@@ -13338,7 +13335,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13371,12 +13368,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13399,19 +13396,19 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13439,10 +13436,10 @@
         <v>181</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -13460,7 +13457,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>93</v>
@@ -13478,27 +13475,27 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AN92" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AP92" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13521,19 +13518,19 @@
         <v>94</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="O93" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13558,40 +13555,40 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -13600,27 +13597,27 @@
         <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>436</v>
-      </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13643,19 +13640,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="O94" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13683,10 +13680,10 @@
         <v>181</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13704,7 +13701,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13713,7 +13710,7 @@
         <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13728,7 +13725,7 @@
         <v>136</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>20</v>
@@ -13739,14 +13736,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13765,19 +13762,19 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13805,10 +13802,10 @@
         <v>181</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13826,7 +13823,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13844,27 +13841,27 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13890,16 +13887,16 @@
         <v>20</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13948,7 +13945,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13969,10 +13966,10 @@
         <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
@@ -13983,12 +13980,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP96">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-weight.xlsx
+++ b/docs/StructureDefinition-body-weight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
